--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuca\Desktop\Tp2 Numerico\TPM-2-numerico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13999241-CAB5-4FA0-B756-D6E54A5FDD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333B101-30A1-46C4-BC9B-4A7A5AA59385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10590" yWindow="4665" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11565" yWindow="5055" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Parte2 B" sheetId="1" r:id="rId2"/>
     <sheet name="Parte2 D" sheetId="3" r:id="rId3"/>
+    <sheet name="Parte2 E 1 " sheetId="5" r:id="rId4"/>
+    <sheet name="Parte2 E 1  (2)" sheetId="7" r:id="rId5"/>
+    <sheet name="Parte2 E 1  (3)" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="14">
   <si>
     <t>Coeficientes</t>
   </si>
@@ -120,7 +123,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -147,7 +159,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8C342A9E-82C2-4D77-BDB9-3B6F384CBAC8}" name="Tabla13" displayName="Tabla13" ref="B4:K6" totalsRowShown="0">
   <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{EA6A5A26-3967-4871-890A-739793680F72}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{EA6A5A26-3967-4871-890A-739793680F72}" name="Columna1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{3BE8E77C-27E1-41AF-9F4E-BA148BA907B6}" name="a0"/>
     <tableColumn id="3" xr3:uid="{F5C4D9A6-403D-4720-B6A4-F0DA30F77744}" name="a1"/>
     <tableColumn id="4" xr3:uid="{D0026715-27CE-41F3-846E-6F1D1FDBE5B1}" name="a2"/>
@@ -166,7 +178,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}" name="Tabla1" displayName="Tabla1" ref="B4:K6" totalsRowShown="0">
   <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{4E8F16BF-F36C-4A1E-BC1E-9103D6B7395E}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4E8F16BF-F36C-4A1E-BC1E-9103D6B7395E}" name="Columna1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{0E3CBA68-1716-4F2A-890C-C2E15C0E4B5D}" name="a0"/>
     <tableColumn id="3" xr3:uid="{2E75D353-3E17-4395-B97B-54DCD259B3A3}" name="a1"/>
     <tableColumn id="4" xr3:uid="{CE575A45-6C38-4811-89BB-FFDC1F74CD9C}" name="a2"/>
@@ -185,7 +197,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A3906B6C-6168-4143-8266-73ECB0A033EE}" name="Tabla14" displayName="Tabla14" ref="B4:K6" totalsRowShown="0">
   <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{FBE5939B-6E29-42DC-865C-2BFC17414F72}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FBE5939B-6E29-42DC-865C-2BFC17414F72}" name="Columna1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{221D10E7-BC85-41DD-B52B-FBD9A414A642}" name="a0"/>
     <tableColumn id="3" xr3:uid="{516648DB-AA9F-4F1F-9907-107ED1EFE950}" name="a1"/>
     <tableColumn id="4" xr3:uid="{522C444A-6526-41F5-A8E7-32FA65BBC9CD}" name="a2"/>
@@ -195,6 +207,63 @@
     <tableColumn id="8" xr3:uid="{4F1E84C7-F7F3-4ED7-A66E-63BE537EE863}" name="a6"/>
     <tableColumn id="9" xr3:uid="{3268BECF-717C-4CA9-BD6D-F59FE4345191}" name="a7"/>
     <tableColumn id="10" xr3:uid="{817FFB3E-CEC5-4640-9AC6-59BB23C8533B}" name="a8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{19A09CB0-1600-497A-8071-941B89C23D9C}" name="Tabla145" displayName="Tabla145" ref="B4:K6" totalsRowShown="0">
+  <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{43D828D1-E515-4192-9ACF-BCE76722F0F7}" name="Columna1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{749B42EB-7504-4A24-92A6-22C305DC3FFE}" name="a0"/>
+    <tableColumn id="3" xr3:uid="{462C7198-428F-4A67-B8E9-F539DE10B04A}" name="a1"/>
+    <tableColumn id="4" xr3:uid="{5F170AD6-9993-4236-A8A8-EB80274F2924}" name="a2"/>
+    <tableColumn id="5" xr3:uid="{46F19DAD-0477-4D0C-A074-7849AFF9B60C}" name="a3"/>
+    <tableColumn id="6" xr3:uid="{F27A6682-5AB8-415B-BE1F-CF11564571DF}" name="a4"/>
+    <tableColumn id="7" xr3:uid="{2466A089-6D58-45EE-82DE-95DED36AFB6E}" name="a5"/>
+    <tableColumn id="8" xr3:uid="{268E7E7F-7859-49E4-847D-4466AA29D8E4}" name="a6"/>
+    <tableColumn id="9" xr3:uid="{72D993D3-919D-4B29-98F7-36E4FA318B7F}" name="a7"/>
+    <tableColumn id="10" xr3:uid="{6F3AEE90-E3DA-475A-8888-17169A999CBC}" name="a8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3A7E9EA4-3F84-49F3-A1DF-CC8E4810709B}" name="Tabla1456" displayName="Tabla1456" ref="B4:K6" totalsRowShown="0">
+  <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{B0190ED5-50BF-4CBE-A969-A2E387AF0391}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{A1108C58-0EAF-41BA-A1A2-FCB76DB9DDA5}" name="a0"/>
+    <tableColumn id="3" xr3:uid="{4B776E46-9318-4B4E-B5B4-C6F419C15C0F}" name="a1"/>
+    <tableColumn id="4" xr3:uid="{5A91948C-D1FC-47AF-BA85-C69A306E26B7}" name="a2"/>
+    <tableColumn id="5" xr3:uid="{218E6E2C-CD68-47AC-9438-EEC8B6487025}" name="a3"/>
+    <tableColumn id="6" xr3:uid="{19BEBA45-8D56-447C-9F9B-92E66E4DD025}" name="a4"/>
+    <tableColumn id="7" xr3:uid="{41B2CA1D-FFC8-48A0-B983-0BA664FB5B7E}" name="a5"/>
+    <tableColumn id="8" xr3:uid="{3A71591A-DEEE-4825-92FA-A6BEA23B538E}" name="a6"/>
+    <tableColumn id="9" xr3:uid="{4F01F290-7C36-46B2-9958-666E4292A50D}" name="a7"/>
+    <tableColumn id="10" xr3:uid="{AFF685F4-B4C0-41A1-9369-10A9517E4CC7}" name="a8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{526ECBDE-819E-4D63-B656-6C585A04C850}" name="Tabla14567" displayName="Tabla14567" ref="B4:K6" totalsRowShown="0">
+  <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{7ABD3C2B-89F9-4D9A-B4BC-591E813CC0B5}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{469A872C-B12B-46DC-9D6B-F1D86E410723}" name="a0"/>
+    <tableColumn id="3" xr3:uid="{64FA4684-4752-4170-BFFD-0FAFF2242FA4}" name="a1"/>
+    <tableColumn id="4" xr3:uid="{FC2F6362-1413-493F-B2C5-0903B1C3972F}" name="a2"/>
+    <tableColumn id="5" xr3:uid="{78FED004-EE53-4A00-AD14-08DA10D52589}" name="a3"/>
+    <tableColumn id="6" xr3:uid="{D6976227-BE7F-459E-8437-8E82DE84F526}" name="a4"/>
+    <tableColumn id="7" xr3:uid="{D2068816-93CA-42FE-A16E-F88F4C04827F}" name="a5"/>
+    <tableColumn id="8" xr3:uid="{67B9A2C1-66EF-4854-A36A-5D0D81C394C7}" name="a6"/>
+    <tableColumn id="9" xr3:uid="{19413C7A-D7E7-4001-A6D8-B0F328481558}" name="a7"/>
+    <tableColumn id="10" xr3:uid="{941CDCDB-5DA2-4A25-9AAA-E36680A5773B}" name="a8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -672,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A6803-0BA6-4970-B28D-A169866C8127}">
   <dimension ref="B2:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -777,4 +846,265 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E12D54-28B0-4C1C-9434-E4E01BA1E90E}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>705</v>
+      </c>
+      <c r="D2" s="2">
+        <v>366</v>
+      </c>
+      <c r="E2" s="2">
+        <v>339</v>
+      </c>
+      <c r="F2">
+        <v>706</v>
+      </c>
+      <c r="G2">
+        <v>730</v>
+      </c>
+      <c r="H2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45602F9-0319-418A-9C3B-D547EF73E725}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>705</v>
+      </c>
+      <c r="D2" s="2">
+        <v>366</v>
+      </c>
+      <c r="E2" s="2">
+        <v>339</v>
+      </c>
+      <c r="F2">
+        <v>706</v>
+      </c>
+      <c r="G2">
+        <v>730</v>
+      </c>
+      <c r="H2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B820F-AB2C-4C9F-9068-25E931CA1E65}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>705</v>
+      </c>
+      <c r="D2" s="2">
+        <v>366</v>
+      </c>
+      <c r="E2" s="2">
+        <v>339</v>
+      </c>
+      <c r="F2">
+        <v>706</v>
+      </c>
+      <c r="G2">
+        <v>730</v>
+      </c>
+      <c r="H2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuca\Desktop\Tp2 Numerico\TPM-2-numerico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Segundo Año\Análisis Numérico\TP2\TPM-2-numerico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C333B101-30A1-46C4-BC9B-4A7A5AA59385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4644A3-F5F8-4C05-96B2-95B601ADADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11565" yWindow="5055" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Parte2 B" sheetId="1" r:id="rId2"/>
     <sheet name="Parte2 D" sheetId="3" r:id="rId3"/>
-    <sheet name="Parte2 E 1 " sheetId="5" r:id="rId4"/>
-    <sheet name="Parte2 E 1  (2)" sheetId="7" r:id="rId5"/>
-    <sheet name="Parte2 E 1  (3)" sheetId="8" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
+    <sheet name="Parte2 E 1 " sheetId="5" r:id="rId5"/>
+    <sheet name="Parte2 E 1  (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="Parte2 E 1  (3)" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
   <si>
     <t>Coeficientes</t>
   </si>
@@ -72,16 +73,82 @@
   </si>
   <si>
     <t>(Ordenadas en orden de importancia)</t>
+  </si>
+  <si>
+    <t>0.080696</t>
+  </si>
+  <si>
+    <t>0.095962</t>
+  </si>
+  <si>
+    <t>-0.093968</t>
+  </si>
+  <si>
+    <t>0.98702</t>
+  </si>
+  <si>
+    <t>0.25083</t>
+  </si>
+  <si>
+    <t>-0.4074</t>
+  </si>
+  <si>
+    <t>-0.31027</t>
+  </si>
+  <si>
+    <t>-0.18734</t>
+  </si>
+  <si>
+    <t>0.15827</t>
+  </si>
+  <si>
+    <t>0.3222</t>
+  </si>
+  <si>
+    <t>-0.0042596</t>
+  </si>
+  <si>
+    <t>-0.094372</t>
+  </si>
+  <si>
+    <t>a9</t>
+  </si>
+  <si>
+    <t>a10</t>
+  </si>
+  <si>
+    <t>0.3145</t>
+  </si>
+  <si>
+    <t>-0.056102</t>
+  </si>
+  <si>
+    <t>-0.1039</t>
+  </si>
+  <si>
+    <t>a11</t>
+  </si>
+  <si>
+    <t>a12</t>
+  </si>
+  <si>
+    <t>0.3032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,10 +299,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3A7E9EA4-3F84-49F3-A1DF-CC8E4810709B}" name="Tabla1456" displayName="Tabla1456" ref="B4:K6" totalsRowShown="0">
-  <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B0190ED5-50BF-4CBE-A969-A2E387AF0391}" name="Columna1" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3A7E9EA4-3F84-49F3-A1DF-CC8E4810709B}" name="Tabla1456" displayName="Tabla1456" ref="B4:M6" totalsRowShown="0">
+  <autoFilter ref="B4:M6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{B0190ED5-50BF-4CBE-A969-A2E387AF0391}" name="Columna1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{A1108C58-0EAF-41BA-A1A2-FCB76DB9DDA5}" name="a0"/>
     <tableColumn id="3" xr3:uid="{4B776E46-9318-4B4E-B5B4-C6F419C15C0F}" name="a1"/>
     <tableColumn id="4" xr3:uid="{5A91948C-D1FC-47AF-BA85-C69A306E26B7}" name="a2"/>
@@ -245,16 +312,18 @@
     <tableColumn id="8" xr3:uid="{3A71591A-DEEE-4825-92FA-A6BEA23B538E}" name="a6"/>
     <tableColumn id="9" xr3:uid="{4F01F290-7C36-46B2-9958-666E4292A50D}" name="a7"/>
     <tableColumn id="10" xr3:uid="{AFF685F4-B4C0-41A1-9369-10A9517E4CC7}" name="a8"/>
+    <tableColumn id="11" xr3:uid="{9B324750-E95D-4C98-A8AC-20B7C98425CC}" name="a9"/>
+    <tableColumn id="12" xr3:uid="{D0F47770-F010-484F-95A2-E0C4977B7EF2}" name="a10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{526ECBDE-819E-4D63-B656-6C585A04C850}" name="Tabla14567" displayName="Tabla14567" ref="B4:K6" totalsRowShown="0">
-  <autoFilter ref="B4:K6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{7ABD3C2B-89F9-4D9A-B4BC-591E813CC0B5}" name="Columna1" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{526ECBDE-819E-4D63-B656-6C585A04C850}" name="Tabla14567" displayName="Tabla14567" ref="B4:O6" totalsRowShown="0">
+  <autoFilter ref="B4:O6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{7ABD3C2B-89F9-4D9A-B4BC-591E813CC0B5}" name="Columna1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{469A872C-B12B-46DC-9D6B-F1D86E410723}" name="a0"/>
     <tableColumn id="3" xr3:uid="{64FA4684-4752-4170-BFFD-0FAFF2242FA4}" name="a1"/>
     <tableColumn id="4" xr3:uid="{FC2F6362-1413-493F-B2C5-0903B1C3972F}" name="a2"/>
@@ -264,6 +333,10 @@
     <tableColumn id="8" xr3:uid="{67B9A2C1-66EF-4854-A36A-5D0D81C394C7}" name="a6"/>
     <tableColumn id="9" xr3:uid="{19413C7A-D7E7-4001-A6D8-B0F328481558}" name="a7"/>
     <tableColumn id="10" xr3:uid="{941CDCDB-5DA2-4A25-9AAA-E36680A5773B}" name="a8"/>
+    <tableColumn id="11" xr3:uid="{AF37C6B6-B0CE-4452-814B-1A7718F83F61}" name="a9"/>
+    <tableColumn id="12" xr3:uid="{0ACAD3AD-F0CF-4781-AE0A-500E96F75163}" name="a10"/>
+    <tableColumn id="13" xr3:uid="{F54F419A-5E1C-4781-BA11-909703424978}" name="a11"/>
+    <tableColumn id="14" xr3:uid="{27335E58-3424-4745-A51E-20D8D11DEAD5}" name="a12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -849,11 +922,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54687C-D3AC-428D-8B20-02D11076F75A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E12D54-28B0-4C1C-9434-E4E01BA1E90E}">
   <dimension ref="B2:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +961,7 @@
       <c r="E2" s="2">
         <v>339</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>706</v>
       </c>
       <c r="G2">
@@ -920,10 +1007,40 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -935,12 +1052,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45602F9-0319-418A-9C3B-D547EF73E725}">
-  <dimension ref="B2:K6"/>
+  <dimension ref="B2:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>705</v>
+      </c>
+      <c r="D2" s="2">
+        <v>366</v>
+      </c>
+      <c r="E2" s="2">
+        <v>339</v>
+      </c>
+      <c r="F2" s="2">
+        <v>706</v>
+      </c>
+      <c r="G2" s="2">
+        <v>730</v>
+      </c>
+      <c r="H2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>2160</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B820F-AB2C-4C9F-9068-25E931CA1E65}">
+  <dimension ref="B2:O6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +1200,7 @@
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -961,17 +1213,17 @@
       <c r="E2" s="2">
         <v>339</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>706</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>730</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -1002,105 +1254,73 @@
       <c r="K4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B820F-AB2C-4C9F-9068-25E931CA1E65}">
-  <dimension ref="B2:K6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>705</v>
-      </c>
-      <c r="D2" s="2">
-        <v>366</v>
-      </c>
-      <c r="E2" s="2">
-        <v>339</v>
-      </c>
-      <c r="F2">
-        <v>706</v>
-      </c>
-      <c r="G2">
-        <v>730</v>
-      </c>
-      <c r="H2">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Segundo Año\Análisis Numérico\TP2\TPM-2-numerico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuca\Desktop\Tp2 Numerico\TPM-2-numerico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4644A3-F5F8-4C05-96B2-95B601ADADD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58526E3-E4F3-4821-90E9-3C23D2507BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte1 (2)" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
   <si>
     <t>Coeficientes</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>a10</t>
-  </si>
-  <si>
-    <t>0.3145</t>
   </si>
   <si>
     <t>-0.056102</t>
@@ -139,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +146,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,12 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -302,7 +308,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3A7E9EA4-3F84-49F3-A1DF-CC8E4810709B}" name="Tabla1456" displayName="Tabla1456" ref="B4:M6" totalsRowShown="0">
   <autoFilter ref="B4:M6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{B0190ED5-50BF-4CBE-A969-A2E387AF0391}" name="Columna1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B0190ED5-50BF-4CBE-A969-A2E387AF0391}" name="Columna1" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{A1108C58-0EAF-41BA-A1A2-FCB76DB9DDA5}" name="a0"/>
     <tableColumn id="3" xr3:uid="{4B776E46-9318-4B4E-B5B4-C6F419C15C0F}" name="a1"/>
     <tableColumn id="4" xr3:uid="{5A91948C-D1FC-47AF-BA85-C69A306E26B7}" name="a2"/>
@@ -323,7 +329,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{526ECBDE-819E-4D63-B656-6C585A04C850}" name="Tabla14567" displayName="Tabla14567" ref="B4:O6" totalsRowShown="0">
   <autoFilter ref="B4:O6" xr:uid="{6568E1AE-11ED-4D47-BEFC-DFD98B72135E}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{7ABD3C2B-89F9-4D9A-B4BC-591E813CC0B5}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7ABD3C2B-89F9-4D9A-B4BC-591E813CC0B5}" name="Columna1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{469A872C-B12B-46DC-9D6B-F1D86E410723}" name="a0"/>
     <tableColumn id="3" xr3:uid="{64FA4684-4752-4170-BFFD-0FAFF2242FA4}" name="a1"/>
     <tableColumn id="4" xr3:uid="{FC2F6362-1413-493F-B2C5-0903B1C3972F}" name="a2"/>
@@ -1054,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45602F9-0319-418A-9C3B-D547EF73E725}">
-  <dimension ref="B2:M6"/>
+  <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,47 +1141,50 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="C5">
+        <v>0.98702199999999995</v>
       </c>
       <c r="D5">
-        <v>2160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
+        <v>0.25082700000000002</v>
+      </c>
+      <c r="E5">
+        <v>-0.40739999999999998</v>
+      </c>
+      <c r="F5">
+        <v>8.0696000000000004E-2</v>
+      </c>
+      <c r="G5">
+        <v>-0.31027300000000002</v>
+      </c>
+      <c r="H5">
+        <v>9.5962000000000006E-2</v>
+      </c>
+      <c r="I5">
+        <v>-0.187337</v>
+      </c>
+      <c r="J5">
+        <v>-9.3967999999999996E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="L5">
+        <v>-9.8631999999999997E-2</v>
+      </c>
+      <c r="M5">
+        <v>-9.4371999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
+      <c r="C6">
+        <v>0.30740000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1191,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B820F-AB2C-4C9F-9068-25E931CA1E65}">
   <dimension ref="B2:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1261,10 +1270,10 @@
         <v>27</v>
       </c>
       <c r="N4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" t="s">
         <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1305,10 +1314,10 @@
         <v>25</v>
       </c>
       <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
         <v>29</v>
-      </c>
-      <c r="O5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -1316,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asuca\Desktop\Tp2 Numerico\TPM-2-numerico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Segundo Año\Análisis Numérico\TP2\TPM-2-numerico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58526E3-E4F3-4821-90E9-3C23D2507BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7AB783-FE06-4B2A-B8D4-098CC94AFFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11310" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Parte2 B" sheetId="1" r:id="rId2"/>
     <sheet name="Parte2 D" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="9" r:id="rId4"/>
-    <sheet name="Parte2 E 1 " sheetId="5" r:id="rId5"/>
-    <sheet name="Parte2 E 1  (2)" sheetId="7" r:id="rId6"/>
-    <sheet name="Parte2 E 1  (3)" sheetId="8" r:id="rId7"/>
+    <sheet name="Parte2 E 1 " sheetId="5" r:id="rId4"/>
+    <sheet name="Parte2 E 1  (2)" sheetId="7" r:id="rId5"/>
+    <sheet name="Parte2 E 1  (3)" sheetId="8" r:id="rId6"/>
+    <sheet name="Parte 3 (2)" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
   <si>
     <t>Coeficientes</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>0.3032</t>
+  </si>
+  <si>
+    <t>ECM</t>
+  </si>
+  <si>
+    <t>Cantidad Componentes</t>
+  </si>
+  <si>
+    <t>0.5959</t>
+  </si>
+  <si>
+    <t>0.5241</t>
+  </si>
+  <si>
+    <t>0.5882</t>
+  </si>
+  <si>
+    <t>0.5746</t>
   </si>
 </sst>
 </file>
@@ -185,13 +203,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,20 +947,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54687C-D3AC-428D-8B20-02D11076F75A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E12D54-28B0-4C1C-9434-E4E01BA1E90E}">
   <dimension ref="B2:K6"/>
   <sheetViews>
@@ -1058,11 +1063,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45602F9-0319-418A-9C3B-D547EF73E725}">
   <dimension ref="B2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1196,12 +1201,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B820F-AB2C-4C9F-9068-25E931CA1E65}">
   <dimension ref="B2:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,4 +1341,66 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A54687C-D3AC-428D-8B20-02D11076F75A}">
+  <dimension ref="B3:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>